--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H2">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J2">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N2">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P2">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q2">
-        <v>308.573854999235</v>
+        <v>1371.622822724727</v>
       </c>
       <c r="R2">
-        <v>308.573854999235</v>
+        <v>12344.60540452254</v>
       </c>
       <c r="S2">
-        <v>0.0009405154576982426</v>
+        <v>0.003552880656562912</v>
       </c>
       <c r="T2">
-        <v>0.0009405154576982426</v>
+        <v>0.003552880656562911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H3">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J3">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N3">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P3">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q3">
-        <v>176.2351374475188</v>
+        <v>647.8877914565221</v>
       </c>
       <c r="R3">
-        <v>176.2351374475188</v>
+        <v>5830.990123108699</v>
       </c>
       <c r="S3">
-        <v>0.0005371546171965112</v>
+        <v>0.00167820771406857</v>
       </c>
       <c r="T3">
-        <v>0.0005371546171965112</v>
+        <v>0.001678207714068569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H4">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J4">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N4">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P4">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q4">
-        <v>184.8711475779487</v>
+        <v>636.3816159620342</v>
       </c>
       <c r="R4">
-        <v>184.8711475779487</v>
+        <v>5727.434543658307</v>
       </c>
       <c r="S4">
-        <v>0.0005634766820406897</v>
+        <v>0.001648403552408314</v>
       </c>
       <c r="T4">
-        <v>0.0005634766820406897</v>
+        <v>0.001648403552408313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H5">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J5">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N5">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P5">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q5">
-        <v>86.39379305038912</v>
+        <v>302.8427603595271</v>
       </c>
       <c r="R5">
-        <v>86.39379305038912</v>
+        <v>2725.584843235743</v>
       </c>
       <c r="S5">
-        <v>0.0002633233389564888</v>
+        <v>0.0007844461082413892</v>
       </c>
       <c r="T5">
-        <v>0.0002633233389564888</v>
+        <v>0.0007844461082413891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.12718469279366</v>
+        <v>10.717137</v>
       </c>
       <c r="H6">
-        <v>3.12718469279366</v>
+        <v>32.151411</v>
       </c>
       <c r="I6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="J6">
-        <v>0.002321017673262305</v>
+        <v>0.007732496379066939</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N6">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P6">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q6">
-        <v>5.429097095937682</v>
+        <v>26.467591681566</v>
       </c>
       <c r="R6">
-        <v>5.429097095937682</v>
+        <v>238.208325134094</v>
       </c>
       <c r="S6">
-        <v>1.654757737037277E-05</v>
+        <v>6.855834778575534E-05</v>
       </c>
       <c r="T6">
-        <v>1.654757737037277E-05</v>
+        <v>6.855834778575533E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H7">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J7">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N7">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P7">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q7">
-        <v>126014.7007963096</v>
+        <v>164910.1157522234</v>
       </c>
       <c r="R7">
-        <v>126014.7007963096</v>
+        <v>1484191.04177001</v>
       </c>
       <c r="S7">
-        <v>0.3840855992042556</v>
+        <v>0.427162592091989</v>
       </c>
       <c r="T7">
-        <v>0.3840855992042556</v>
+        <v>0.427162592091989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H8">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J8">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N8">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P8">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q8">
-        <v>71970.51129072694</v>
+        <v>77895.50371530231</v>
       </c>
       <c r="R8">
-        <v>71970.51129072694</v>
+        <v>701059.5334377208</v>
       </c>
       <c r="S8">
-        <v>0.2193620012542618</v>
+        <v>0.2017707957305286</v>
       </c>
       <c r="T8">
-        <v>0.2193620012542618</v>
+        <v>0.2017707957305286</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H9">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J9">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N9">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P9">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q9">
-        <v>75497.26579383519</v>
+        <v>76512.11704279706</v>
       </c>
       <c r="R9">
-        <v>75497.26579383519</v>
+        <v>688609.0533851737</v>
       </c>
       <c r="S9">
-        <v>0.2301113472274922</v>
+        <v>0.1981874434649786</v>
       </c>
       <c r="T9">
-        <v>0.2301113472274922</v>
+        <v>0.1981874434649786</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H10">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J10">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N10">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P10">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q10">
-        <v>35281.30399100101</v>
+        <v>36410.76383258413</v>
       </c>
       <c r="R10">
-        <v>35281.30399100101</v>
+        <v>327696.8744932572</v>
       </c>
       <c r="S10">
-        <v>0.1075353962550373</v>
+        <v>0.09431390056232003</v>
       </c>
       <c r="T10">
-        <v>0.1075353962550373</v>
+        <v>0.09431390056232003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1277.0726910683</v>
+        <v>1288.520629666667</v>
       </c>
       <c r="H11">
-        <v>1277.0726910683</v>
+        <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="J11">
-        <v>0.9478520065798225</v>
+        <v>0.9296774971944981</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N11">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P11">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q11">
-        <v>2217.122530165093</v>
+        <v>3182.19669108379</v>
       </c>
       <c r="R11">
-        <v>2217.122530165093</v>
+        <v>28639.77021975411</v>
       </c>
       <c r="S11">
-        <v>0.00675766263877566</v>
+        <v>0.008242765344681866</v>
       </c>
       <c r="T11">
-        <v>0.00675766263877566</v>
+        <v>0.008242765344681866</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H12">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I12">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J12">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N12">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P12">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q12">
-        <v>213.363281640756</v>
+        <v>124.840184957242</v>
       </c>
       <c r="R12">
-        <v>213.363281640756</v>
+        <v>1123.561664615178</v>
       </c>
       <c r="S12">
-        <v>0.000650319076737244</v>
+        <v>0.0003233704418939495</v>
       </c>
       <c r="T12">
-        <v>0.000650319076737244</v>
+        <v>0.0003233704418939494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H13">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I13">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J13">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N13">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P13">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q13">
-        <v>121.8577227364435</v>
+        <v>58.96842074725645</v>
       </c>
       <c r="R13">
-        <v>121.8577227364435</v>
+        <v>530.715786725308</v>
       </c>
       <c r="S13">
-        <v>0.0003714153678827257</v>
+        <v>0.0001527444410736791</v>
       </c>
       <c r="T13">
-        <v>0.0003714153678827257</v>
+        <v>0.0001527444410736791</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H14">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J14">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N14">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P14">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q14">
-        <v>127.829088851424</v>
+        <v>57.92116996294178</v>
       </c>
       <c r="R14">
-        <v>127.829088851424</v>
+        <v>521.290529666476</v>
       </c>
       <c r="S14">
-        <v>0.000389615750201988</v>
+        <v>0.0001500317732815447</v>
       </c>
       <c r="T14">
-        <v>0.000389615750201988</v>
+        <v>0.0001500317732815447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H15">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J15">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N15">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P15">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q15">
-        <v>59.73695729558508</v>
+        <v>27.56366078915311</v>
       </c>
       <c r="R15">
-        <v>59.73695729558508</v>
+        <v>248.072947102378</v>
       </c>
       <c r="S15">
-        <v>0.0001820748285122759</v>
+        <v>7.13974684726411E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001820748285122759</v>
+        <v>7.13974684726411E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.16229073701934</v>
+        <v>0.9754353333333333</v>
       </c>
       <c r="H16">
-        <v>2.16229073701934</v>
+        <v>2.926306</v>
       </c>
       <c r="I16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007478</v>
       </c>
       <c r="J16">
-        <v>0.001604866839786751</v>
+        <v>0.0007037840594007477</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N16">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P16">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q16">
-        <v>3.753947244618097</v>
+        <v>2.408985171547111</v>
       </c>
       <c r="R16">
-        <v>3.753947244618097</v>
+        <v>21.680866543924</v>
       </c>
       <c r="S16">
-        <v>1.144181645251766E-05</v>
+        <v>6.239934678933455E-06</v>
       </c>
       <c r="T16">
-        <v>1.144181645251766E-05</v>
+        <v>6.239934678933454E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H17">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I17">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J17">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N17">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P17">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q17">
-        <v>40.9108585297498</v>
+        <v>287.542068283842</v>
       </c>
       <c r="R17">
-        <v>40.9108585297498</v>
+        <v>2587.878614554578</v>
       </c>
       <c r="S17">
-        <v>0.0001246939564436886</v>
+        <v>0.0007448131041770955</v>
       </c>
       <c r="T17">
-        <v>0.0001246939564436886</v>
+        <v>0.0007448131041770955</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H18">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I18">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J18">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N18">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P18">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q18">
-        <v>23.3653326724791</v>
+        <v>135.8208630570787</v>
       </c>
       <c r="R18">
-        <v>23.3653326724791</v>
+        <v>1222.387767513708</v>
       </c>
       <c r="S18">
-        <v>7.121619734368896E-05</v>
+        <v>0.0003518134206564013</v>
       </c>
       <c r="T18">
-        <v>7.121619734368896E-05</v>
+        <v>0.0003518134206564013</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H19">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I19">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J19">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N19">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P19">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q19">
-        <v>24.51029872512273</v>
+        <v>133.4087498690307</v>
       </c>
       <c r="R19">
-        <v>24.51029872512273</v>
+        <v>1200.678748821276</v>
       </c>
       <c r="S19">
-        <v>7.470598837298324E-05</v>
+        <v>0.0003455653835537292</v>
       </c>
       <c r="T19">
-        <v>7.470598837298324E-05</v>
+        <v>0.0003455653835537291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H20">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J20">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N20">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P20">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q20">
-        <v>11.45412739307325</v>
+        <v>63.48686551130867</v>
       </c>
       <c r="R20">
-        <v>11.45412739307325</v>
+        <v>571.381789601778</v>
       </c>
       <c r="S20">
-        <v>3.491152504691941E-05</v>
+        <v>0.000164448456735987</v>
       </c>
       <c r="T20">
-        <v>3.491152504691941E-05</v>
+        <v>0.000164448456735987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.414603533288968</v>
+        <v>2.246702</v>
       </c>
       <c r="H21">
-        <v>0.414603533288968</v>
+        <v>6.740106</v>
       </c>
       <c r="I21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="J21">
-        <v>0.0003077215523528999</v>
+        <v>0.001621012690221507</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.73609736209332</v>
+        <v>2.469651333333333</v>
       </c>
       <c r="N21">
-        <v>1.73609736209332</v>
+        <v>7.408954</v>
       </c>
       <c r="O21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="P21">
-        <v>0.007129449103726268</v>
+        <v>0.008866263160672582</v>
       </c>
       <c r="Q21">
-        <v>0.7197921004575473</v>
+        <v>5.548570589902666</v>
       </c>
       <c r="R21">
-        <v>0.7197921004575473</v>
+        <v>49.937135309124</v>
       </c>
       <c r="S21">
-        <v>2.193885145619638E-06</v>
+        <v>1.43723250982937E-05</v>
       </c>
       <c r="T21">
-        <v>2.193885145619638E-06</v>
+        <v>1.43723250982937E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H22">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I22">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J22">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>98.6746499847988</v>
+        <v>127.984071</v>
       </c>
       <c r="N22">
-        <v>98.6746499847988</v>
+        <v>383.952213</v>
       </c>
       <c r="O22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="P22">
-        <v>0.4052168445474617</v>
+        <v>0.4594739502473105</v>
       </c>
       <c r="Q22">
-        <v>6370.105400881537</v>
+        <v>56.988064553168</v>
       </c>
       <c r="R22">
-        <v>6370.105400881537</v>
+        <v>512.892580978512</v>
       </c>
       <c r="S22">
-        <v>0.01941571685232698</v>
+        <v>0.0001476147734285284</v>
       </c>
       <c r="T22">
-        <v>0.01941571685232698</v>
+        <v>0.0001476147734285284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H23">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I23">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J23">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>56.3558455161405</v>
+        <v>60.45343933333334</v>
       </c>
       <c r="N23">
-        <v>56.3558455161405</v>
+        <v>181.360318</v>
       </c>
       <c r="O23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="P23">
-        <v>0.2314306450073316</v>
+        <v>0.2170331070069088</v>
       </c>
       <c r="Q23">
-        <v>3638.144913094866</v>
+        <v>26.91838504800356</v>
       </c>
       <c r="R23">
-        <v>3638.144913094866</v>
+        <v>242.265465432032</v>
       </c>
       <c r="S23">
-        <v>0.01108885757064685</v>
+        <v>6.972602668784685E-05</v>
       </c>
       <c r="T23">
-        <v>0.01108885757064685</v>
+        <v>6.972602668784685E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H24">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I24">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J24">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.117438123808</v>
+        <v>59.37981533333334</v>
       </c>
       <c r="N24">
-        <v>59.117438123808</v>
+        <v>178.139446</v>
       </c>
       <c r="O24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="P24">
-        <v>0.2427713879699569</v>
+        <v>0.2131787034353868</v>
       </c>
       <c r="Q24">
-        <v>3816.424096125638</v>
+        <v>26.44032747927823</v>
       </c>
       <c r="R24">
-        <v>3816.424096125638</v>
+        <v>237.9629473135041</v>
       </c>
       <c r="S24">
-        <v>0.01163224232184903</v>
+        <v>6.848772599722864E-05</v>
       </c>
       <c r="T24">
-        <v>0.01163224232184903</v>
+        <v>6.848772599722864E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.5566556543436</v>
+        <v>0.4452746666666667</v>
       </c>
       <c r="H25">
-        <v>64.5566556543436</v>
+        <v>1.335824</v>
       </c>
       <c r="I25">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="J25">
-        <v>0.04791438735477562</v>
+        <v>0.0003212690803234332</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6266999034232</v>
+        <v>28.25780433333334</v>
       </c>
       <c r="N25">
-        <v>27.6266999034232</v>
+        <v>84.77341300000001</v>
       </c>
       <c r="O25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="P25">
-        <v>0.1134516733715236</v>
+        <v>0.1014479761497213</v>
       </c>
       <c r="Q25">
-        <v>1783.487352531179</v>
+        <v>12.58248440525689</v>
       </c>
       <c r="R25">
-        <v>1783.487352531179</v>
+        <v>113.242359647312</v>
       </c>
       <c r="S25">
-        <v>0.005435967423970666</v>
+        <v>3.259209799829455E-05</v>
       </c>
       <c r="T25">
-        <v>0.005435967423970666</v>
+        <v>3.259209799829455E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,371 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4452746666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.335824</v>
+      </c>
+      <c r="I26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="J26">
+        <v>0.0003212690803234332</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.408954</v>
+      </c>
+      <c r="O26">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P26">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q26">
+        <v>1.099673174232889</v>
+      </c>
+      <c r="R26">
+        <v>9.897058568096</v>
+      </c>
+      <c r="S26">
+        <v>2.848456211534817E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.848456211534817E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H27">
+        <v>249.24451</v>
+      </c>
+      <c r="I27">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J27">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>127.984071</v>
+      </c>
+      <c r="N27">
+        <v>383.952213</v>
+      </c>
+      <c r="O27">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="P27">
+        <v>0.4594739502473105</v>
+      </c>
+      <c r="Q27">
+        <v>10633.10902140007</v>
+      </c>
+      <c r="R27">
+        <v>95697.98119260062</v>
+      </c>
+      <c r="S27">
+        <v>0.02754267917925907</v>
+      </c>
+      <c r="T27">
+        <v>0.02754267917925907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H28">
+        <v>249.24451</v>
+      </c>
+      <c r="I28">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J28">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>60.45343933333334</v>
+      </c>
+      <c r="N28">
+        <v>181.360318</v>
+      </c>
+      <c r="O28">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="P28">
+        <v>0.2170331070069088</v>
+      </c>
+      <c r="Q28">
+        <v>5022.562621483798</v>
+      </c>
+      <c r="R28">
+        <v>45203.06359335418</v>
+      </c>
+      <c r="S28">
+        <v>0.01300981967389365</v>
+      </c>
+      <c r="T28">
+        <v>0.01300981967389365</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H29">
+        <v>249.24451</v>
+      </c>
+      <c r="I29">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J29">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>59.37981533333334</v>
+      </c>
+      <c r="N29">
+        <v>178.139446</v>
+      </c>
+      <c r="O29">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="P29">
+        <v>0.2131787034353868</v>
+      </c>
+      <c r="Q29">
+        <v>4933.364325549052</v>
+      </c>
+      <c r="R29">
+        <v>44400.27892994147</v>
+      </c>
+      <c r="S29">
+        <v>0.01277877153516744</v>
+      </c>
+      <c r="T29">
+        <v>0.01277877153516744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="H26">
-        <v>64.5566556543436</v>
-      </c>
-      <c r="I26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="J26">
-        <v>0.04791438735477562</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="N26">
-        <v>1.73609736209332</v>
-      </c>
-      <c r="O26">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="P26">
-        <v>0.007129449103726268</v>
-      </c>
-      <c r="Q26">
-        <v>112.0766395870727</v>
-      </c>
-      <c r="R26">
-        <v>112.0766395870727</v>
-      </c>
-      <c r="S26">
-        <v>0.0003416031859820983</v>
-      </c>
-      <c r="T26">
-        <v>0.0003416031859820983</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H30">
+        <v>249.24451</v>
+      </c>
+      <c r="I30">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J30">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>28.25780433333334</v>
+      </c>
+      <c r="N30">
+        <v>84.77341300000001</v>
+      </c>
+      <c r="O30">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="P30">
+        <v>0.1014479761497213</v>
+      </c>
+      <c r="Q30">
+        <v>2347.700864912515</v>
+      </c>
+      <c r="R30">
+        <v>21129.30778421263</v>
+      </c>
+      <c r="S30">
+        <v>0.006081191455952959</v>
+      </c>
+      <c r="T30">
+        <v>0.006081191455952959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>83.08150333333333</v>
+      </c>
+      <c r="H31">
+        <v>249.24451</v>
+      </c>
+      <c r="I31">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="J31">
+        <v>0.05994394059648932</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>2.469651333333333</v>
+      </c>
+      <c r="N31">
+        <v>7.408954</v>
+      </c>
+      <c r="O31">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="P31">
+        <v>0.008866263160672582</v>
+      </c>
+      <c r="Q31">
+        <v>205.1823454825044</v>
+      </c>
+      <c r="R31">
+        <v>1846.64110934254</v>
+      </c>
+      <c r="S31">
+        <v>0.0005314787522161989</v>
+      </c>
+      <c r="T31">
+        <v>0.0005314787522161989</v>
       </c>
     </row>
   </sheetData>
